--- a/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8FA5646-F915-48B5-88FC-62EA699E56E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1AE1E97-BE0C-4FE8-BD82-1E52B2D3994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D682925-C61B-440E-8430-29F2EC02017A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{355C768B-FA41-4FD8-8564-70D8FDFD7987}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población con bienestar emocional por debajo del percentil 15 (Bericat) en 2023 (Tasa respuesta: 98,25%)</t>
   </si>
@@ -74,25 +74,25 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>7,14%</t>
@@ -104,19 +104,19 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -125,7 +125,7 @@
     <t>92,86%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>96,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>6,88%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>93,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,103 +188,103 @@
     <t>11,04%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>11,13%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>90,8%</t>
   </si>
   <si>
     <t>89,91%</t>
@@ -299,7 +293,7 @@
     <t>87,28%</t>
   </si>
   <si>
-    <t>92,0%</t>
+    <t>91,93%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +302,55 @@
     <t>23,46%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +359,55 @@
     <t>14,33%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,7 +416,7 @@
     <t>7,38%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>5,49%</t>
   </si>
   <si>
     <t>10,21%</t>
@@ -431,16 +425,16 @@
     <t>9,11%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>5,85%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>10,05%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>92,62%</t>
@@ -449,22 +443,22 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>94,53%</t>
+    <t>94,51%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>94,15%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>89,95%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +467,109 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF0C789-A015-4FEF-8E44-CF793DE3F73B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A1C06-F98A-4EE7-8A0D-822960A881F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1302,10 +1296,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1320,13 +1314,13 @@
         <v>491847</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>653</v>
@@ -1335,13 +1329,13 @@
         <v>508315</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
@@ -1350,13 +1344,13 @@
         <v>1000163</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1412,7 +1406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1424,13 +1418,13 @@
         <v>34761</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -1439,13 +1433,13 @@
         <v>55055</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -1454,13 +1448,13 @@
         <v>89816</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,13 +1469,13 @@
         <v>280227</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>419</v>
@@ -1490,13 +1484,13 @@
         <v>301897</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>725</v>
@@ -1505,13 +1499,13 @@
         <v>582124</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1579,13 +1573,13 @@
         <v>22943</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -1594,13 +1588,13 @@
         <v>47802</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -1609,13 +1603,13 @@
         <v>70745</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1624,13 @@
         <v>279146</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -1645,13 +1639,13 @@
         <v>350909</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>717</v>
@@ -1660,13 +1654,13 @@
         <v>630055</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1728,13 @@
         <v>45705</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
@@ -1749,13 +1743,13 @@
         <v>72464</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -1764,13 +1758,13 @@
         <v>118169</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1779,13 @@
         <v>149125</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -1800,13 +1794,13 @@
         <v>157727</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>520</v>
@@ -1815,13 +1809,13 @@
         <v>306852</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1883,13 @@
         <v>39604</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
@@ -1904,13 +1898,13 @@
         <v>53831</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
@@ -1919,13 +1913,13 @@
         <v>93435</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1934,13 @@
         <v>236808</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>340</v>
@@ -1955,13 +1949,13 @@
         <v>221791</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>641</v>
@@ -1970,13 +1964,13 @@
         <v>458599</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2038,13 @@
         <v>46095</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -2059,13 +2053,13 @@
         <v>72713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -2074,13 +2068,13 @@
         <v>118808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,16 +2086,16 @@
         <v>549</v>
       </c>
       <c r="D23" s="7">
-        <v>578201</v>
+        <v>578200</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>854</v>
@@ -2110,13 +2104,13 @@
         <v>725448</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1403</v>
@@ -2125,13 +2119,13 @@
         <v>1303648</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2137,7 @@
         <v>595</v>
       </c>
       <c r="D24" s="7">
-        <v>624296</v>
+        <v>624295</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2193,13 @@
         <v>132036</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>260</v>
@@ -2214,13 +2208,13 @@
         <v>188100</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>401</v>
@@ -2229,13 +2223,13 @@
         <v>320136</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2244,13 @@
         <v>725041</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>800</v>
@@ -2265,13 +2259,13 @@
         <v>679007</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -2280,13 +2274,13 @@
         <v>1404048</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2348,13 @@
         <v>351244</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>909</v>
@@ -2369,13 +2363,13 @@
         <v>544360</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1334</v>
@@ -2384,13 +2378,13 @@
         <v>895603</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2399,13 @@
         <v>2988821</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>4350</v>
@@ -2420,13 +2414,13 @@
         <v>3199152</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>7256</v>
@@ -2435,13 +2429,13 @@
         <v>6187973</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1AE1E97-BE0C-4FE8-BD82-1E52B2D3994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A5C6C5-AED7-4D17-9075-5EA77057BCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{355C768B-FA41-4FD8-8564-70D8FDFD7987}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{213C2425-41D7-4F12-A794-6FEC24DAA1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A1C06-F98A-4EE7-8A0D-822960A881F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124F2DFF-4361-4D3C-B741-17B0ACECE20D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A5C6C5-AED7-4D17-9075-5EA77057BCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17544B3-6377-48E4-AE4D-979D09D371AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{213C2425-41D7-4F12-A794-6FEC24DAA1AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F30949A-DD22-4C44-BB3C-310DB5372E07}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población con bienestar emocional por debajo del percentil 15 (Bericat) en 2023 (Tasa respuesta: 98,25%)</t>
   </si>
@@ -74,25 +74,25 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>7,14%</t>
@@ -104,19 +104,19 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>94,69%</t>
@@ -125,7 +125,7 @@
     <t>92,86%</t>
   </si>
   <si>
-    <t>96,07%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,55 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>6,88%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>93,12%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -188,55 +194,55 @@
     <t>11,04%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,25 +251,25 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>8,07%</t>
+    <t>8,0%</t>
   </si>
   <si>
     <t>12,72%</t>
@@ -272,19 +278,19 @@
     <t>92,41%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>88,01%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>89,91%</t>
@@ -293,7 +299,7 @@
     <t>87,28%</t>
   </si>
   <si>
-    <t>91,93%</t>
+    <t>92,0%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -302,55 +308,55 @@
     <t>23,46%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +365,55 @@
     <t>14,33%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,7 +422,7 @@
     <t>7,38%</t>
   </si>
   <si>
-    <t>5,49%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>10,21%</t>
@@ -425,16 +431,16 @@
     <t>9,11%</t>
   </si>
   <si>
-    <t>5,85%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>92,62%</t>
@@ -443,22 +449,22 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>94,51%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>94,15%</t>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>89,95%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -467,109 +473,109 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124F2DFF-4361-4D3C-B741-17B0ACECE20D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9487975B-8BE0-45E5-9780-286F26B7BE7F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1296,10 +1302,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,13 +1320,13 @@
         <v>491847</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>653</v>
@@ -1329,13 +1335,13 @@
         <v>508315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
@@ -1344,13 +1350,13 @@
         <v>1000163</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,7 +1412,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1418,13 +1424,13 @@
         <v>34761</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -1433,13 +1439,13 @@
         <v>55055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -1448,13 +1454,13 @@
         <v>89816</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1475,13 @@
         <v>280227</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>419</v>
@@ -1484,13 +1490,13 @@
         <v>301897</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>725</v>
@@ -1499,13 +1505,13 @@
         <v>582124</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1567,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1573,13 +1579,13 @@
         <v>22943</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -1588,13 +1594,13 @@
         <v>47802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -1603,13 +1609,13 @@
         <v>70745</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1630,13 @@
         <v>279146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -1639,13 +1645,13 @@
         <v>350909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>717</v>
@@ -1654,13 +1660,13 @@
         <v>630055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1728,13 +1734,13 @@
         <v>45705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
@@ -1743,13 +1749,13 @@
         <v>72464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -1758,13 +1764,13 @@
         <v>118169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1785,13 @@
         <v>149125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -1794,13 +1800,13 @@
         <v>157727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>520</v>
@@ -1809,13 +1815,13 @@
         <v>306852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1889,13 @@
         <v>39604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
@@ -1898,13 +1904,13 @@
         <v>53831</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
@@ -1913,13 +1919,13 @@
         <v>93435</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>236808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>340</v>
@@ -1949,13 +1955,13 @@
         <v>221791</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>641</v>
@@ -1964,13 +1970,13 @@
         <v>458599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2044,13 @@
         <v>46095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -2053,13 +2059,13 @@
         <v>72713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -2068,13 +2074,13 @@
         <v>118808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,16 +2092,16 @@
         <v>549</v>
       </c>
       <c r="D23" s="7">
-        <v>578200</v>
+        <v>578201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>854</v>
@@ -2104,13 +2110,13 @@
         <v>725448</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1403</v>
@@ -2119,13 +2125,13 @@
         <v>1303648</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2143,7 @@
         <v>595</v>
       </c>
       <c r="D24" s="7">
-        <v>624295</v>
+        <v>624296</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2199,13 @@
         <v>132036</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>260</v>
@@ -2208,13 +2214,13 @@
         <v>188100</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>401</v>
@@ -2223,13 +2229,13 @@
         <v>320136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2250,13 @@
         <v>725041</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>800</v>
@@ -2259,13 +2265,13 @@
         <v>679007</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -2274,13 +2280,13 @@
         <v>1404048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2354,13 @@
         <v>351244</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>909</v>
@@ -2363,13 +2369,13 @@
         <v>544360</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1334</v>
@@ -2378,13 +2384,13 @@
         <v>895603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>2988821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>4350</v>
@@ -2414,13 +2420,13 @@
         <v>3199152</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>7256</v>
@@ -2429,13 +2435,13 @@
         <v>6187973</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17544B3-6377-48E4-AE4D-979D09D371AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B513CF90-2AF6-44FF-830A-95ED8F76421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F30949A-DD22-4C44-BB3C-310DB5372E07}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1EB59F2-7D66-477D-8E43-E6467A9ACA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,448 +134,448 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9487975B-8BE0-45E5-9780-286F26B7BE7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB8FBA6-C825-40DC-A66D-931ECDB24C97}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>10809</v>
+        <v>12375</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1126,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>17346</v>
+        <v>17883</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1141,7 @@
         <v>52</v>
       </c>
       <c r="N4" s="7">
-        <v>28155</v>
+        <v>30258</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1162,7 @@
         <v>318</v>
       </c>
       <c r="D5" s="7">
-        <v>248425</v>
+        <v>297786</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1177,7 @@
         <v>498</v>
       </c>
       <c r="I5" s="7">
-        <v>254057</v>
+        <v>271752</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1192,7 @@
         <v>816</v>
       </c>
       <c r="N5" s="7">
-        <v>502481</v>
+        <v>569538</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1213,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259234</v>
+        <v>310161</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1228,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1243,7 @@
         <v>868</v>
       </c>
       <c r="N6" s="7">
-        <v>530636</v>
+        <v>599796</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,46 +1266,46 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>19292</v>
+        <v>19054</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>37049</v>
+        <v>34249</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>56341</v>
+        <v>53303</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1317,46 +1317,46 @@
         <v>362</v>
       </c>
       <c r="D8" s="7">
-        <v>491847</v>
+        <v>491056</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>653</v>
       </c>
       <c r="I8" s="7">
-        <v>508315</v>
+        <v>472681</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1015</v>
       </c>
       <c r="N8" s="7">
-        <v>1000163</v>
+        <v>963737</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1368,7 +1368,7 @@
         <v>377</v>
       </c>
       <c r="D9" s="7">
-        <v>511139</v>
+        <v>510110</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1383,7 @@
         <v>706</v>
       </c>
       <c r="I9" s="7">
-        <v>545364</v>
+        <v>506930</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1398,7 @@
         <v>1083</v>
       </c>
       <c r="N9" s="7">
-        <v>1056504</v>
+        <v>1017040</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1421,46 +1421,46 @@
         <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>34761</v>
+        <v>33482</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>55055</v>
+        <v>50964</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
       </c>
       <c r="N10" s="7">
-        <v>89816</v>
+        <v>84446</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,46 +1472,46 @@
         <v>306</v>
       </c>
       <c r="D11" s="7">
-        <v>280227</v>
+        <v>275514</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>419</v>
       </c>
       <c r="I11" s="7">
-        <v>301897</v>
+        <v>282603</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>725</v>
       </c>
       <c r="N11" s="7">
-        <v>582124</v>
+        <v>558117</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,7 +1523,7 @@
         <v>352</v>
       </c>
       <c r="D12" s="7">
-        <v>314988</v>
+        <v>308996</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1538,7 @@
         <v>515</v>
       </c>
       <c r="I12" s="7">
-        <v>356952</v>
+        <v>333567</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1553,7 @@
         <v>867</v>
       </c>
       <c r="N12" s="7">
-        <v>671940</v>
+        <v>642563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1576,46 +1576,46 @@
         <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>22943</v>
+        <v>22001</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
       </c>
       <c r="I13" s="7">
-        <v>47802</v>
+        <v>44205</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>70745</v>
+        <v>66206</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,46 +1627,46 @@
         <v>250</v>
       </c>
       <c r="D14" s="7">
-        <v>279146</v>
+        <v>271648</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
       </c>
       <c r="I14" s="7">
-        <v>350909</v>
+        <v>403573</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>717</v>
       </c>
       <c r="N14" s="7">
-        <v>630055</v>
+        <v>675221</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>271</v>
       </c>
       <c r="D15" s="7">
-        <v>302089</v>
+        <v>293649</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1693,7 @@
         <v>543</v>
       </c>
       <c r="I15" s="7">
-        <v>398711</v>
+        <v>447778</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1708,7 @@
         <v>814</v>
       </c>
       <c r="N15" s="7">
-        <v>700800</v>
+        <v>741427</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1731,46 +1731,46 @@
         <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>45705</v>
+        <v>41872</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
       </c>
       <c r="I16" s="7">
-        <v>72464</v>
+        <v>65984</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
       </c>
       <c r="N16" s="7">
-        <v>118169</v>
+        <v>107856</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,46 +1782,46 @@
         <v>201</v>
       </c>
       <c r="D17" s="7">
-        <v>149125</v>
+        <v>135178</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
       </c>
       <c r="I17" s="7">
-        <v>157727</v>
+        <v>141127</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>520</v>
       </c>
       <c r="N17" s="7">
-        <v>306852</v>
+        <v>276305</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1833,7 @@
         <v>276</v>
       </c>
       <c r="D18" s="7">
-        <v>194830</v>
+        <v>177050</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1848,7 @@
         <v>488</v>
       </c>
       <c r="I18" s="7">
-        <v>230191</v>
+        <v>207111</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1863,7 @@
         <v>764</v>
       </c>
       <c r="N18" s="7">
-        <v>425021</v>
+        <v>384161</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1886,46 +1886,46 @@
         <v>69</v>
       </c>
       <c r="D19" s="7">
-        <v>39604</v>
+        <v>37932</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
       </c>
       <c r="I19" s="7">
-        <v>53831</v>
+        <v>50331</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
       </c>
       <c r="N19" s="7">
-        <v>93435</v>
+        <v>88263</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +1937,46 @@
         <v>301</v>
       </c>
       <c r="D20" s="7">
-        <v>236808</v>
+        <v>230937</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>221791</v>
+        <v>206725</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>641</v>
       </c>
       <c r="N20" s="7">
-        <v>458599</v>
+        <v>437661</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1988,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276412</v>
+        <v>268869</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +2003,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2018,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552034</v>
+        <v>525924</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,46 +2041,46 @@
         <v>46</v>
       </c>
       <c r="D22" s="7">
-        <v>46095</v>
+        <v>44724</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
       </c>
       <c r="I22" s="7">
-        <v>72713</v>
+        <v>66634</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
       </c>
       <c r="N22" s="7">
-        <v>118808</v>
+        <v>111358</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2092,46 @@
         <v>549</v>
       </c>
       <c r="D23" s="7">
-        <v>578201</v>
+        <v>576304</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>854</v>
       </c>
       <c r="I23" s="7">
-        <v>725448</v>
+        <v>777002</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1403</v>
       </c>
       <c r="N23" s="7">
-        <v>1303648</v>
+        <v>1353306</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2143,7 @@
         <v>595</v>
       </c>
       <c r="D24" s="7">
-        <v>624296</v>
+        <v>621028</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2158,7 @@
         <v>949</v>
       </c>
       <c r="I24" s="7">
-        <v>798161</v>
+        <v>843636</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2173,7 @@
         <v>1544</v>
       </c>
       <c r="N24" s="7">
-        <v>1422456</v>
+        <v>1464664</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2196,7 +2196,7 @@
         <v>141</v>
       </c>
       <c r="D25" s="7">
-        <v>132036</v>
+        <v>112189</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>144</v>
@@ -2211,7 +2211,7 @@
         <v>260</v>
       </c>
       <c r="I25" s="7">
-        <v>188100</v>
+        <v>157232</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>147</v>
@@ -2226,7 +2226,7 @@
         <v>401</v>
       </c>
       <c r="N25" s="7">
-        <v>320136</v>
+        <v>269421</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>150</v>
@@ -2247,7 +2247,7 @@
         <v>619</v>
       </c>
       <c r="D26" s="7">
-        <v>725041</v>
+        <v>814501</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>153</v>
@@ -2262,7 +2262,7 @@
         <v>800</v>
       </c>
       <c r="I26" s="7">
-        <v>679007</v>
+        <v>559362</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>156</v>
@@ -2277,7 +2277,7 @@
         <v>1419</v>
       </c>
       <c r="N26" s="7">
-        <v>1404048</v>
+        <v>1373863</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>159</v>
@@ -2298,7 +2298,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>857077</v>
+        <v>926690</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2313,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>867107</v>
+        <v>716594</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2328,7 @@
         <v>1820</v>
       </c>
       <c r="N27" s="7">
-        <v>1724184</v>
+        <v>1643284</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,7 +2351,7 @@
         <v>425</v>
       </c>
       <c r="D28" s="7">
-        <v>351244</v>
+        <v>323628</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
@@ -2366,7 +2366,7 @@
         <v>909</v>
       </c>
       <c r="I28" s="7">
-        <v>544360</v>
+        <v>487482</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>165</v>
@@ -2381,7 +2381,7 @@
         <v>1334</v>
       </c>
       <c r="N28" s="7">
-        <v>895603</v>
+        <v>811110</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>168</v>
@@ -2402,7 +2402,7 @@
         <v>2906</v>
       </c>
       <c r="D29" s="7">
-        <v>2988821</v>
+        <v>3092925</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -2417,7 +2417,7 @@
         <v>4350</v>
       </c>
       <c r="I29" s="7">
-        <v>3199152</v>
+        <v>3114823</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -2432,7 +2432,7 @@
         <v>7256</v>
       </c>
       <c r="N29" s="7">
-        <v>6187973</v>
+        <v>6207748</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -2453,7 +2453,7 @@
         <v>3331</v>
       </c>
       <c r="D30" s="7">
-        <v>3340065</v>
+        <v>3416553</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2468,7 @@
         <v>5259</v>
       </c>
       <c r="I30" s="7">
-        <v>3743512</v>
+        <v>3602305</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2483,7 @@
         <v>8590</v>
       </c>
       <c r="N30" s="7">
-        <v>7083576</v>
+        <v>7018858</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
